--- a/RestrictedEvents.xlsx
+++ b/RestrictedEvents.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05989A3-F82C-432F-8174-152A14BB6BCD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFB398A-5B2D-48C4-A604-991A98C30BDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="570" windowWidth="24030" windowHeight="14445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Trump</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Brexit</t>
+  </si>
+  <si>
+    <t>German Buba</t>
   </si>
 </sst>
 </file>
@@ -395,55 +398,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="53.5703125" customWidth="1"/>
+    <col min="1" max="1" width="53.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
